--- a/outputs_HGR/train-o__Selenomonadales.xlsx
+++ b/outputs_HGR/train-o__Selenomonadales.xlsx
@@ -18,651 +18,477 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="157">
   <si>
     <t>Row</t>
   </si>
   <si>
+    <t>label_Acidaminococcus11.fasta</t>
+  </si>
+  <si>
+    <t>label_Acidaminococcus8.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium1.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium16.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium17.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium19.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium22.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium23.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium26.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium28.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium30.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium35.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium44.fasta</t>
+  </si>
+  <si>
+    <t>label_Succiniclasticum0.fasta</t>
+  </si>
+  <si>
+    <t>label_Succiniclasticum2.fasta</t>
+  </si>
+  <si>
+    <t>label_Succiniclasticum6.fasta</t>
+  </si>
+  <si>
+    <t>label_Dialister5.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera11.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera20.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera3.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera32.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera42.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera8.fasta</t>
+  </si>
+  <si>
+    <t>label_Pelosinus4.fasta</t>
+  </si>
+  <si>
+    <t>label_Selenomonas4.fasta</t>
+  </si>
+  <si>
+    <t>label_Veillonella18.fasta</t>
+  </si>
+  <si>
+    <t>label_Veillonella19.fasta</t>
+  </si>
+  <si>
+    <t>label_Veillonella20.fasta</t>
+  </si>
+  <si>
+    <t>label_Veillonella32.fasta</t>
+  </si>
+  <si>
+    <t>label_Veillonella5.fasta</t>
+  </si>
+  <si>
+    <t>f__Acidaminococcaceae</t>
+  </si>
+  <si>
+    <t>f__Veillonellaceae</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>label_Acidaminococcus3.fasta</t>
+  </si>
+  <si>
+    <t>label_Acidaminococcus4.fasta</t>
+  </si>
+  <si>
+    <t>label_Acidaminococcus9.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium0.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium12.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium13.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium15.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium2.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium20.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium39.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium41.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium46.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium5.fasta</t>
+  </si>
+  <si>
+    <t>label_Succiniclasticum1.fasta</t>
+  </si>
+  <si>
+    <t>label_Succiniclasticum11.fasta</t>
+  </si>
+  <si>
+    <t>label_Succiniclasticum12.fasta</t>
+  </si>
+  <si>
+    <t>label_Succiniclasticum4.fasta</t>
+  </si>
+  <si>
+    <t>label_Succiniclasticum8.fasta</t>
+  </si>
+  <si>
+    <t>label_Succiniclasticum9.fasta</t>
+  </si>
+  <si>
+    <t>label_Megamonas1.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera2.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera26.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera30.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera36.fasta</t>
+  </si>
+  <si>
+    <t>label_Pelosinus3.fasta</t>
+  </si>
+  <si>
+    <t>label_Pelosinus5.fasta</t>
+  </si>
+  <si>
+    <t>label_Pelosinus6.fasta</t>
+  </si>
+  <si>
+    <t>label_Pelosinus9.fasta</t>
+  </si>
+  <si>
+    <t>label_Selenomonas10.fasta</t>
+  </si>
+  <si>
+    <t>label_Selenomonas12.fasta</t>
+  </si>
+  <si>
+    <t>label_Veillonella31.fasta</t>
+  </si>
+  <si>
+    <t>label_Acidaminococcus10.fasta</t>
+  </si>
+  <si>
     <t>label_Acidaminococcus12.fasta</t>
   </si>
   <si>
     <t>label_Acidaminococcus14.fasta</t>
   </si>
   <si>
+    <t>label_Acidaminococcus2.fasta</t>
+  </si>
+  <si>
+    <t>label_Acidaminococcus6.fasta</t>
+  </si>
+  <si>
+    <t>label_Acidaminococcus7.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium27.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium3.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium33.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium34.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium37.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium40.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium7.fasta</t>
+  </si>
+  <si>
+    <t>label_Succiniclasticum10.fasta</t>
+  </si>
+  <si>
+    <t>label_Succiniclasticum3.fasta</t>
+  </si>
+  <si>
+    <t>label_Dialister16.fasta</t>
+  </si>
+  <si>
+    <t>label_Dialister23.fasta</t>
+  </si>
+  <si>
+    <t>label_Dialister7.fasta</t>
+  </si>
+  <si>
+    <t>label_Megamonas5.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera21.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera24.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera29.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera33.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera40.fasta</t>
+  </si>
+  <si>
+    <t>label_Pelosinus7.fasta</t>
+  </si>
+  <si>
+    <t>label_Selenomonas2.fasta</t>
+  </si>
+  <si>
+    <t>label_Selenomonas6.fasta</t>
+  </si>
+  <si>
+    <t>label_Selenomonas9.fasta</t>
+  </si>
+  <si>
+    <t>label_Veillonella33.fasta</t>
+  </si>
+  <si>
+    <t>label_Veillonella34.fasta</t>
+  </si>
+  <si>
+    <t>label_Veillonella8.fasta</t>
+  </si>
+  <si>
+    <t>label_Acidaminococcus0.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium10.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium11.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium14.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium24.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium29.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium32.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium4.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium42.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium43.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium45.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium47.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium8.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium9.fasta</t>
+  </si>
+  <si>
+    <t>label_Succiniclasticum5.fasta</t>
+  </si>
+  <si>
+    <t>label_Dialister1.fasta</t>
+  </si>
+  <si>
+    <t>label_Dialister14.fasta</t>
+  </si>
+  <si>
+    <t>label_Dialister17.fasta</t>
+  </si>
+  <si>
+    <t>label_Dialister8.fasta</t>
+  </si>
+  <si>
+    <t>label_Dialister9.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera12.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera14.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera16.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera31.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera37.fasta</t>
+  </si>
+  <si>
+    <t>label_Pelosinus2.fasta</t>
+  </si>
+  <si>
+    <t>label_Selenomonas1.fasta</t>
+  </si>
+  <si>
+    <t>label_Veillonella16.fasta</t>
+  </si>
+  <si>
+    <t>label_Veillonella27.fasta</t>
+  </si>
+  <si>
+    <t>label_Veillonella9.fasta</t>
+  </si>
+  <si>
+    <t>label_Acidaminococcus1.fasta</t>
+  </si>
+  <si>
+    <t>label_Acidaminococcus13.fasta</t>
+  </si>
+  <si>
     <t>label_Acidaminococcus5.fasta</t>
   </si>
   <si>
-    <t>label_Acidaminococcus9.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium10.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium11.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium14.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium15.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium22.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium23.fasta</t>
+    <t>label_Phascolarctobacterium18.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium21.fasta</t>
   </si>
   <si>
     <t>label_Phascolarctobacterium25.fasta</t>
   </si>
   <si>
-    <t>label_Phascolarctobacterium29.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium30.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium34.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium37.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium40.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium46.fasta</t>
-  </si>
-  <si>
-    <t>label_Succiniclasticum2.fasta</t>
-  </si>
-  <si>
-    <t>label_Succiniclasticum6.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister16.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister22.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister24.fasta</t>
+    <t>label_Phascolarctobacterium31.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium36.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium38.fasta</t>
+  </si>
+  <si>
+    <t>label_Phascolarctobacterium6.fasta</t>
+  </si>
+  <si>
+    <t>label_Succiniclasticum7.fasta</t>
+  </si>
+  <si>
+    <t>label_Dialister11.fasta</t>
+  </si>
+  <si>
+    <t>label_Dialister13.fasta</t>
   </si>
   <si>
     <t>label_Dialister3.fasta</t>
   </si>
   <si>
-    <t>label_Dialister5.fasta</t>
+    <t>label_Dialister4.fasta</t>
   </si>
   <si>
     <t>label_Megamonas0.fasta</t>
   </si>
   <si>
+    <t>label_Megamonas3.fasta</t>
+  </si>
+  <si>
     <t>label_Megasphaera18.fasta</t>
   </si>
   <si>
-    <t>label_Megasphaera23.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera29.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera37.fasta</t>
+    <t>label_Megasphaera22.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera25.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera27.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera38.fasta</t>
   </si>
   <si>
     <t>label_Megasphaera39.fasta</t>
   </si>
   <si>
-    <t>label_Megasphaera9.fasta</t>
-  </si>
-  <si>
-    <t>label_Pelosinus10.fasta</t>
-  </si>
-  <si>
-    <t>label_Selenomonas10.fasta</t>
-  </si>
-  <si>
-    <t>label_Selenomonas12.fasta</t>
-  </si>
-  <si>
-    <t>label_Selenomonas2.fasta</t>
-  </si>
-  <si>
-    <t>label_Selenomonas6.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella16.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella23.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella24.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella27.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella4.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella7.fasta</t>
-  </si>
-  <si>
-    <t>f__Acidaminococcaceae</t>
-  </si>
-  <si>
-    <t>f__Veillonellaceae</t>
-  </si>
-  <si>
-    <t>prediction</t>
-  </si>
-  <si>
-    <t>actual</t>
-  </si>
-  <si>
-    <t>label_Acidaminococcus6.fasta</t>
-  </si>
-  <si>
-    <t>label_Acidaminococcus7.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium12.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium13.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium18.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium19.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium2.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium21.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium26.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium27.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium3.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium32.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium39.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium7.fasta</t>
-  </si>
-  <si>
-    <t>label_Succiniclasticum0.fasta</t>
-  </si>
-  <si>
-    <t>label_Succiniclasticum10.fasta</t>
-  </si>
-  <si>
-    <t>label_Succiniclasticum5.fasta</t>
-  </si>
-  <si>
-    <t>label_Succiniclasticum8.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister18.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister2.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister21.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister25.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister8.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister9.fasta</t>
-  </si>
-  <si>
-    <t>label_Megamonas1.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera13.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera24.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera3.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera36.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera42.fasta</t>
-  </si>
-  <si>
-    <t>label_Pelosinus0.fasta</t>
-  </si>
-  <si>
-    <t>label_Pelosinus3.fasta</t>
-  </si>
-  <si>
-    <t>label_Pelosinus9.fasta</t>
-  </si>
-  <si>
-    <t>label_Selenomonas5.fasta</t>
-  </si>
-  <si>
-    <t>label_Selenomonas9.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella0.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella10.fasta</t>
+    <t>label_Megasphaera4.fasta</t>
+  </si>
+  <si>
+    <t>label_Megasphaera41.fasta</t>
   </si>
   <si>
     <t>label_Veillonella12.fasta</t>
   </si>
   <si>
-    <t>label_Veillonella13.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella25.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella28.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella34.fasta</t>
-  </si>
-  <si>
-    <t>label_Acidaminococcus11.fasta</t>
-  </si>
-  <si>
-    <t>label_Acidaminococcus13.fasta</t>
-  </si>
-  <si>
-    <t>label_Acidaminococcus3.fasta</t>
-  </si>
-  <si>
-    <t>label_Acidaminococcus4.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium0.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium1.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium36.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium4.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium44.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium45.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium5.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium9.fasta</t>
-  </si>
-  <si>
-    <t>label_Succiniclasticum1.fasta</t>
-  </si>
-  <si>
-    <t>label_Succiniclasticum3.fasta</t>
-  </si>
-  <si>
-    <t>label_Succiniclasticum9.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister0.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister10.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister12.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister13.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister19.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister23.fasta</t>
-  </si>
-  <si>
-    <t>label_Megamonas3.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera11.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera14.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera19.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera26.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera32.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera38.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera40.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera7.fasta</t>
-  </si>
-  <si>
-    <t>label_Pelosinus2.fasta</t>
-  </si>
-  <si>
-    <t>label_Pelosinus6.fasta</t>
-  </si>
-  <si>
-    <t>label_Selenomonas1.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella1.fasta</t>
-  </si>
-  <si>
     <t>label_Veillonella14.fasta</t>
   </si>
   <si>
-    <t>label_Veillonella15.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella19.fasta</t>
-  </si>
-  <si>
     <t>label_Veillonella2.fasta</t>
   </si>
   <si>
+    <t>label_Veillonella21.fasta</t>
+  </si>
+  <si>
     <t>label_Veillonella29.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella5.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella6.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella8.fasta</t>
-  </si>
-  <si>
-    <t>label_Acidaminococcus0.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium16.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium17.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium20.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium31.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium38.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium41.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium43.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium8.fasta</t>
-  </si>
-  <si>
-    <t>label_Succiniclasticum11.fasta</t>
-  </si>
-  <si>
-    <t>label_Succiniclasticum12.fasta</t>
-  </si>
-  <si>
-    <t>label_Succiniclasticum4.fasta</t>
-  </si>
-  <si>
-    <t>label_Succiniclasticum7.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister14.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister15.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister4.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister7.fasta</t>
-  </si>
-  <si>
-    <t>label_Megamonas2.fasta</t>
-  </si>
-  <si>
-    <t>label_Megamonas4.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera1.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera12.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera17.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera20.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera21.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera28.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera30.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera33.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera34.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera6.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera8.fasta</t>
-  </si>
-  <si>
-    <t>label_Pelosinus1.fasta</t>
-  </si>
-  <si>
-    <t>label_Pelosinus4.fasta</t>
-  </si>
-  <si>
-    <t>label_Selenomonas3.fasta</t>
-  </si>
-  <si>
-    <t>label_Selenomonas4.fasta</t>
-  </si>
-  <si>
-    <t>label_Selenomonas8.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella11.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella17.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella18.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella22.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella31.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella32.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella9.fasta</t>
-  </si>
-  <si>
-    <t>label_Acidaminococcus1.fasta</t>
-  </si>
-  <si>
-    <t>label_Acidaminococcus10.fasta</t>
-  </si>
-  <si>
-    <t>label_Acidaminococcus2.fasta</t>
-  </si>
-  <si>
-    <t>label_Acidaminococcus8.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium24.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium28.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium33.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium35.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium42.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium47.fasta</t>
-  </si>
-  <si>
-    <t>label_Phascolarctobacterium6.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister1.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister11.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister17.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister20.fasta</t>
-  </si>
-  <si>
-    <t>label_Dialister6.fasta</t>
-  </si>
-  <si>
-    <t>label_Megamonas5.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera0.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera10.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera15.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera16.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera2.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera22.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera25.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera27.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera31.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera35.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera4.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera41.fasta</t>
-  </si>
-  <si>
-    <t>label_Megasphaera5.fasta</t>
-  </si>
-  <si>
-    <t>label_Pelosinus5.fasta</t>
-  </si>
-  <si>
-    <t>label_Pelosinus7.fasta</t>
-  </si>
-  <si>
-    <t>label_Pelosinus8.fasta</t>
-  </si>
-  <si>
-    <t>label_Selenomonas0.fasta</t>
-  </si>
-  <si>
-    <t>label_Selenomonas11.fasta</t>
-  </si>
-  <si>
-    <t>label_Selenomonas7.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella20.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella21.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella26.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella3.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella30.fasta</t>
-  </si>
-  <si>
-    <t>label_Veillonella33.fasta</t>
   </si>
 </sst>
 </file>
@@ -726,7 +552,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E31"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="true"/>
@@ -741,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -758,10 +584,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9999889380600393</v>
+        <v>0.9726765564752502</v>
       </c>
       <c r="C2">
-        <v>1.1061939960693591e-05</v>
+        <v>0.027323443524749819</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -775,10 +601,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.99970919440317674</v>
+        <v>0.9997109999433158</v>
       </c>
       <c r="C3">
-        <v>0.00029080559682324154</v>
+        <v>0.0002890000566842218</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -792,10 +618,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9899965328450141</v>
+        <v>0.99992506225916489</v>
       </c>
       <c r="C4">
-        <v>0.010003467154985899</v>
+        <v>7.4937740835132163e-05</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -809,10 +635,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.99999991981744996</v>
+        <v>0.99925457148894825</v>
       </c>
       <c r="C5">
-        <v>8.018255005989945e-08</v>
+        <v>0.00074542851105171963</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -826,10 +652,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.99687034291244192</v>
+        <v>0.99963213802057527</v>
       </c>
       <c r="C6">
-        <v>0.003129657087558033</v>
+        <v>0.00036786197942472837</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -843,10 +669,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.99750861178943639</v>
+        <v>0.91567966844858029</v>
       </c>
       <c r="C7">
-        <v>0.0024913882105636531</v>
+        <v>0.084320331551419714</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -860,10 +686,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.99927439200161317</v>
+        <v>0.96309390085017155</v>
       </c>
       <c r="C8">
-        <v>0.00072560799838683671</v>
+        <v>0.036906099149828502</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -877,10 +703,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.99997227240598852</v>
+        <v>0.99561261462724815</v>
       </c>
       <c r="C9">
-        <v>2.7727594011484065e-05</v>
+        <v>0.0043873853727518387</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -894,10 +720,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.99594061342236928</v>
+        <v>0.99786983333570756</v>
       </c>
       <c r="C10">
-        <v>0.0040593865776306819</v>
+        <v>0.0021301666642924229</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -911,10 +737,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.99979846333727296</v>
+        <v>0.99698168070692972</v>
       </c>
       <c r="C11">
-        <v>0.00020153666272703711</v>
+        <v>0.003018319293070333</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -928,10 +754,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.99997650712067843</v>
+        <v>0.99945812073583207</v>
       </c>
       <c r="C12">
-        <v>2.3492879321540902e-05</v>
+        <v>0.0005418792641679283</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -945,13 +771,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.15949640468546714</v>
+        <v>0.99997685942153758</v>
       </c>
       <c r="C13">
-        <v>0.84050359531453289</v>
+        <v>2.3140578462471492e-05</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -962,10 +788,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.99997771350262887</v>
+        <v>0.99963714861917652</v>
       </c>
       <c r="C14">
-        <v>2.2286497371095166e-05</v>
+        <v>0.00036285138082349419</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -979,10 +805,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.77558605372299017</v>
+        <v>0.99455097649492996</v>
       </c>
       <c r="C15">
-        <v>0.22441394627700981</v>
+        <v>0.0054490235050700195</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -996,10 +822,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.99998770552535021</v>
+        <v>0.98792176291258715</v>
       </c>
       <c r="C16">
-        <v>1.2294474649839984e-05</v>
+        <v>0.012078237087412853</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1013,10 +839,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.99952598875778176</v>
+        <v>0.98910836573064986</v>
       </c>
       <c r="C17">
-        <v>0.00047401124221824978</v>
+        <v>0.010891634269350173</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1030,16 +856,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.95825053663718318</v>
+        <v>0.0016393906403127101</v>
       </c>
       <c r="C18">
-        <v>0.041749463362816819</v>
+        <v>0.99836060935968729</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1047,16 +873,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.99927391893341921</v>
+        <v>0.00025724282961792078</v>
       </c>
       <c r="C19">
-        <v>0.00072608106658074391</v>
+        <v>0.99974275717038208</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1064,16 +890,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.99763568086082721</v>
+        <v>0.00030809756999217175</v>
       </c>
       <c r="C20">
-        <v>0.0023643191391727698</v>
+        <v>0.99969190243000783</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1081,10 +907,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.0013111480543224197</v>
+        <v>0.0014213690367239629</v>
       </c>
       <c r="C21">
-        <v>0.99868885194567758</v>
+        <v>0.99857863096327604</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1098,10 +924,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.00017089837360595439</v>
+        <v>0.00074715525870827637</v>
       </c>
       <c r="C22">
-        <v>0.99982910162639405</v>
+        <v>0.99925284474129172</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1115,10 +941,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>5.7210711883914911e-05</v>
+        <v>0.0021938669640304553</v>
       </c>
       <c r="C23">
-        <v>0.99994278928811609</v>
+        <v>0.99780613303596954</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1132,10 +958,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.12391451825094535</v>
+        <v>0.016254567611151405</v>
       </c>
       <c r="C24">
-        <v>0.87608548174905476</v>
+        <v>0.9837454323888486</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1149,10 +975,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.00019112242996843776</v>
+        <v>0.01575917506672464</v>
       </c>
       <c r="C25">
-        <v>0.99980887757003156</v>
+        <v>0.98424082493327536</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1166,10 +992,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2.9457503103458293e-10</v>
+        <v>0.059886841809747127</v>
       </c>
       <c r="C26">
-        <v>0.99999999970542497</v>
+        <v>0.94011315819025298</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1183,10 +1009,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.27087640570472504</v>
+        <v>0.0070844531788728515</v>
       </c>
       <c r="C27">
-        <v>0.72912359429527496</v>
+        <v>0.99291554682112715</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1200,10 +1026,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.00017477156322587284</v>
+        <v>0.013267485437475468</v>
       </c>
       <c r="C28">
-        <v>0.99982522843677413</v>
+        <v>0.98673251456252453</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1217,10 +1043,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.00028656669107196553</v>
+        <v>0.0069650437173397473</v>
       </c>
       <c r="C29">
-        <v>0.99971343330892803</v>
+        <v>0.99303495628266025</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1234,10 +1060,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.0017783262782663511</v>
+        <v>0.0069225701963745445</v>
       </c>
       <c r="C30">
-        <v>0.99822167372173365</v>
+        <v>0.99307742980362546</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1251,219 +1077,15 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.010438030930434716</v>
+        <v>0.0049437100472222717</v>
       </c>
       <c r="C31">
-        <v>0.98956196906956528</v>
+        <v>0.99505628995277773</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0.00014644041535993857</v>
-      </c>
-      <c r="C32">
-        <v>0.99985355958464006</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0.00042549754676279861</v>
-      </c>
-      <c r="C33">
-        <v>0.9995745024532372</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>9.9775986608374723e-06</v>
-      </c>
-      <c r="C34">
-        <v>0.99999002240133916</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>0.0010606453449920616</v>
-      </c>
-      <c r="C35">
-        <v>0.99893935465500794</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0.00013510167540997653</v>
-      </c>
-      <c r="C36">
-        <v>0.99986489832459002</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>1.6383846869194585e-05</v>
-      </c>
-      <c r="C37">
-        <v>0.99998361615313081</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0.0014488316375018684</v>
-      </c>
-      <c r="C38">
-        <v>0.99855116836249813</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0.00038479028316484865</v>
-      </c>
-      <c r="C39">
-        <v>0.99961520971683515</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>0.0017481217140505878</v>
-      </c>
-      <c r="C40">
-        <v>0.99825187828594941</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>0.0037371266050830743</v>
-      </c>
-      <c r="C41">
-        <v>0.99626287339491693</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>0.0017504478288870029</v>
-      </c>
-      <c r="C42">
-        <v>0.998249552171113</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>0.028178139165347726</v>
-      </c>
-      <c r="C43">
-        <v>0.97182186083465227</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
         <v>2</v>
       </c>
     </row>
@@ -1473,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="true"/>
@@ -1488,27 +1110,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B2">
-        <v>0.99930962314556904</v>
+        <v>0.98942057613853107</v>
       </c>
       <c r="C2">
-        <v>0.00069037685443101252</v>
+        <v>0.010579423861468901</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1519,13 +1141,13 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>0.99999999985748889</v>
+        <v>0.97692247915768593</v>
       </c>
       <c r="C3">
-        <v>1.4251110965672717e-10</v>
+        <v>0.023077520842314042</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1536,13 +1158,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>0.9935990241695265</v>
+        <v>0.99999581158965667</v>
       </c>
       <c r="C4">
-        <v>0.0064009758304734718</v>
+        <v>4.1884103432999635e-06</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1553,13 +1175,13 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>0.97049642532911973</v>
+        <v>0.99994346948469581</v>
       </c>
       <c r="C5">
-        <v>0.029503574670880276</v>
+        <v>5.6530515304210316e-05</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1570,13 +1192,13 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>0.99987623709108342</v>
+        <v>0.99143181769195698</v>
       </c>
       <c r="C6">
-        <v>0.00012376290891662621</v>
+        <v>0.0085681823080430014</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1587,13 +1209,13 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>0.98454976024921637</v>
+        <v>0.97055939353272491</v>
       </c>
       <c r="C7">
-        <v>0.015450239750783653</v>
+        <v>0.029440606467275088</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1604,13 +1226,13 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B8">
-        <v>0.9999698071419505</v>
+        <v>0.99989560486269335</v>
       </c>
       <c r="C8">
-        <v>3.0192858049470863e-05</v>
+        <v>0.00010439513730669689</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1621,13 +1243,13 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B9">
-        <v>0.99992459527607391</v>
+        <v>0.99989450032566474</v>
       </c>
       <c r="C9">
-        <v>7.5404723926132282e-05</v>
+        <v>0.00010549967433526199</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1638,13 +1260,13 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B10">
-        <v>0.99988518472790089</v>
+        <v>0.99993773000858499</v>
       </c>
       <c r="C10">
-        <v>0.00011481527209912876</v>
+        <v>6.2269991415058023e-05</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1655,13 +1277,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B11">
-        <v>0.9999031798588095</v>
+        <v>0.99988093744902928</v>
       </c>
       <c r="C11">
-        <v>9.682014119047603e-05</v>
+        <v>0.00011906255097072399</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1672,13 +1294,13 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B12">
-        <v>0.99993897826941325</v>
+        <v>0.99991240911994361</v>
       </c>
       <c r="C12">
-        <v>6.1021730586763088e-05</v>
+        <v>8.7590880056434025e-05</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1689,13 +1311,13 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B13">
-        <v>0.99901056315766812</v>
+        <v>0.95882675042013044</v>
       </c>
       <c r="C13">
-        <v>0.00098943684233185661</v>
+        <v>0.041173249579869536</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1706,13 +1328,13 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B14">
-        <v>0.99998818464720995</v>
+        <v>0.99996684614736719</v>
       </c>
       <c r="C14">
-        <v>1.1815352790077811e-05</v>
+        <v>3.3153852632762604e-05</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1723,13 +1345,13 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B15">
-        <v>0.99971379845389585</v>
+        <v>0.98082446429681569</v>
       </c>
       <c r="C15">
-        <v>0.00028620154610415206</v>
+        <v>0.019175535703184261</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1740,13 +1362,13 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B16">
-        <v>0.99987234916374534</v>
+        <v>0.92378426309380934</v>
       </c>
       <c r="C16">
-        <v>0.00012765083625466649</v>
+        <v>0.076215736906190656</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1757,13 +1379,13 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B17">
-        <v>0.99770732595209255</v>
+        <v>0.93933015044995416</v>
       </c>
       <c r="C17">
-        <v>0.0022926740479074174</v>
+        <v>0.060669849550045798</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1774,13 +1396,13 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B18">
-        <v>0.99969487999689155</v>
+        <v>0.99984949354631714</v>
       </c>
       <c r="C18">
-        <v>0.0003051200031084345</v>
+        <v>0.00015050645368289153</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1791,13 +1413,13 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B19">
-        <v>0.98628499082820043</v>
+        <v>0.9796108524444701</v>
       </c>
       <c r="C19">
-        <v>0.013715009171799589</v>
+        <v>0.020389147555529948</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1808,30 +1430,30 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B20">
-        <v>0.33340686787314078</v>
+        <v>0.96990430552990181</v>
       </c>
       <c r="C20">
-        <v>0.66659313212685922</v>
+        <v>0.030095694470098241</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B21">
-        <v>0.034199199252565982</v>
+        <v>2.9049451288898354e-08</v>
       </c>
       <c r="C21">
-        <v>0.96580080074743402</v>
+        <v>0.99999997095054871</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1842,13 +1464,13 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B22">
-        <v>0.00016546705813724749</v>
+        <v>0.00063270364589818051</v>
       </c>
       <c r="C22">
-        <v>0.99983453294186275</v>
+        <v>0.99936729635410182</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1859,13 +1481,13 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B23">
-        <v>0.012499990426175112</v>
+        <v>0.00012872336250335792</v>
       </c>
       <c r="C23">
-        <v>0.98750000957382489</v>
+        <v>0.99987127663749664</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1876,13 +1498,13 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B24">
-        <v>0.12260182037675182</v>
+        <v>0.0002181162789934854</v>
       </c>
       <c r="C24">
-        <v>0.87739817962324818</v>
+        <v>0.99978188372100651</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1893,13 +1515,13 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B25">
-        <v>0.0035691232622073743</v>
+        <v>3.3878126238562345e-05</v>
       </c>
       <c r="C25">
-        <v>0.99643087673779263</v>
+        <v>0.99996612187376144</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1910,13 +1532,13 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B26">
-        <v>5.0282077945773558e-08</v>
+        <v>0.0015374529960804351</v>
       </c>
       <c r="C26">
-        <v>0.99999994971792205</v>
+        <v>0.99846254700391956</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1927,13 +1549,13 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B27">
-        <v>0.00014602605125402235</v>
+        <v>0.011192483740625979</v>
       </c>
       <c r="C27">
-        <v>0.99985397394874598</v>
+        <v>0.98880751625937402</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1944,13 +1566,13 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B28">
-        <v>0.28337895135828284</v>
+        <v>0.44555612503347103</v>
       </c>
       <c r="C28">
-        <v>0.71662104864171716</v>
+        <v>0.55444387496652903</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1961,13 +1583,13 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B29">
-        <v>0.00044278403875763761</v>
+        <v>0.0018737834142491527</v>
       </c>
       <c r="C29">
-        <v>0.99955721596124236</v>
+        <v>0.99812621658575085</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1978,13 +1600,13 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B30">
-        <v>6.3668690626794699e-05</v>
+        <v>9.2926085785260959e-05</v>
       </c>
       <c r="C30">
-        <v>0.99993633130937321</v>
+        <v>0.99990707391421474</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1995,13 +1617,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B31">
-        <v>0.0016017566013503126</v>
+        <v>0.0055495284804993892</v>
       </c>
       <c r="C31">
-        <v>0.99839824339864969</v>
+        <v>0.99445047151950061</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2012,205 +1634,18 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B32">
-        <v>0.17181193639057568</v>
+        <v>0.0085801983262221437</v>
       </c>
       <c r="C32">
-        <v>0.82818806360942432</v>
+        <v>0.99141980167377786</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33">
-        <v>0.0018934840282235355</v>
-      </c>
-      <c r="C33">
-        <v>0.99810651597177646</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34">
-        <v>0.0026207975731993294</v>
-      </c>
-      <c r="C34">
-        <v>0.99737920242680067</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35">
-        <v>0.17808535982545706</v>
-      </c>
-      <c r="C35">
-        <v>0.82191464017454297</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36">
-        <v>7.7641146081663948e-05</v>
-      </c>
-      <c r="C36">
-        <v>0.99992235885391834</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37">
-        <v>0.0052466977773264478</v>
-      </c>
-      <c r="C37">
-        <v>0.99475330222267355</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38">
-        <v>0.015638436122180077</v>
-      </c>
-      <c r="C38">
-        <v>0.98436156387781992</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39">
-        <v>0.0040147838134748648</v>
-      </c>
-      <c r="C39">
-        <v>0.99598521618652514</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40">
-        <v>0.002922430446074209</v>
-      </c>
-      <c r="C40">
-        <v>0.99707756955392579</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41">
-        <v>0.0059195001885726795</v>
-      </c>
-      <c r="C41">
-        <v>0.99408049981142732</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42">
-        <v>0.0024495648825400007</v>
-      </c>
-      <c r="C42">
-        <v>0.99755043511746</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43">
-        <v>0.0026097925678115752</v>
-      </c>
-      <c r="C43">
-        <v>0.99739020743218842</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
         <v>2</v>
       </c>
     </row>
@@ -2220,7 +1655,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="true"/>
@@ -2235,27 +1670,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B2">
-        <v>0.99988216691797471</v>
+        <v>0.99999795844843586</v>
       </c>
       <c r="C2">
-        <v>0.00011783308202523539</v>
+        <v>2.0415515641481504e-06</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2266,13 +1701,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B3">
-        <v>0.99946696155750658</v>
+        <v>0.99999849554522025</v>
       </c>
       <c r="C3">
-        <v>0.00053303844249336877</v>
+        <v>1.5044547798084075e-06</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2283,13 +1718,13 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B4">
-        <v>0.99825623970589206</v>
+        <v>0.99977500824023979</v>
       </c>
       <c r="C4">
-        <v>0.001743760294107888</v>
+        <v>0.000224991759760219</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2300,13 +1735,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B5">
-        <v>0.99403433788514495</v>
+        <v>0.99945710962018475</v>
       </c>
       <c r="C5">
-        <v>0.0059656621148550292</v>
+        <v>0.00054289037981530375</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2317,13 +1752,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B6">
-        <v>0.99999941057976982</v>
+        <v>0.99994426754011967</v>
       </c>
       <c r="C6">
-        <v>5.8942023021247454e-07</v>
+        <v>5.5732459880306106e-05</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2334,13 +1769,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B7">
-        <v>0.99999993470515813</v>
+        <v>0.99999999999915445</v>
       </c>
       <c r="C7">
-        <v>6.5294841839379458e-08</v>
+        <v>8.4555768255084436e-13</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2351,13 +1786,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B8">
-        <v>0.99932221743288807</v>
+        <v>0.99999699259697661</v>
       </c>
       <c r="C8">
-        <v>0.00067778256711195682</v>
+        <v>3.0074030234166939e-06</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2368,13 +1803,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B9">
-        <v>0.99999913220795633</v>
+        <v>0.99999939406532179</v>
       </c>
       <c r="C9">
-        <v>8.6779204368787018e-07</v>
+        <v>6.0593467821540355e-07</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2385,13 +1820,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B10">
-        <v>0.9999995506571111</v>
+        <v>0.99990941224811813</v>
       </c>
       <c r="C10">
-        <v>4.4934288887907596e-07</v>
+        <v>9.0587751881885385e-05</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2402,13 +1837,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B11">
-        <v>0.99880218874371007</v>
+        <v>0.89129586194835342</v>
       </c>
       <c r="C11">
-        <v>0.0011978112562899272</v>
+        <v>0.10870413805164654</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2419,13 +1854,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B12">
-        <v>0.9999992539410093</v>
+        <v>0.99999970046046927</v>
       </c>
       <c r="C12">
-        <v>7.4605899069392575e-07</v>
+        <v>2.9953953075130365e-07</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2436,13 +1871,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B13">
-        <v>0.9997221087378898</v>
+        <v>0.99996450731638475</v>
       </c>
       <c r="C13">
-        <v>0.00027789126211019683</v>
+        <v>3.5492683615219986e-05</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2453,13 +1888,13 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B14">
-        <v>0.94523103744846293</v>
+        <v>0.99999108761369293</v>
       </c>
       <c r="C14">
-        <v>0.054768962551537119</v>
+        <v>8.9123863070320991e-06</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2470,13 +1905,13 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B15">
-        <v>0.92316662501111491</v>
+        <v>0.99978886168050352</v>
       </c>
       <c r="C15">
-        <v>0.076833374988885109</v>
+        <v>0.00021113831949649825</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2487,13 +1922,13 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B16">
-        <v>0.99861306366510927</v>
+        <v>0.99707644407843543</v>
       </c>
       <c r="C16">
-        <v>0.0013869363348907853</v>
+        <v>0.0029235559215645365</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2504,13 +1939,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B17">
-        <v>0.0049685881964894874</v>
+        <v>0.00069944192978543818</v>
       </c>
       <c r="C17">
-        <v>0.99503141180351051</v>
+        <v>0.99930055807021456</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2521,13 +1956,13 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B18">
-        <v>8.0470696290246835e-05</v>
+        <v>2.952743001560787e-05</v>
       </c>
       <c r="C18">
-        <v>0.99991952930370975</v>
+        <v>0.99997047256998439</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2538,13 +1973,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B19">
-        <v>0.0024063800476460395</v>
+        <v>3.2203541068254182e-06</v>
       </c>
       <c r="C19">
-        <v>0.99759361995235396</v>
+        <v>0.99999677964589317</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2555,13 +1990,13 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B20">
-        <v>0.0055685763010860923</v>
+        <v>6.7745808962627052e-13</v>
       </c>
       <c r="C20">
-        <v>0.99443142369891391</v>
+        <v>0.99999999999932254</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2572,13 +2007,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>0.0080399005784329569</v>
+        <v>2.2233039033148216e-06</v>
       </c>
       <c r="C21">
-        <v>0.99196009942156704</v>
+        <v>0.99999777669609669</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2589,13 +2024,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B22">
-        <v>1.1273384673438079e-05</v>
+        <v>0.39566676646318577</v>
       </c>
       <c r="C22">
-        <v>0.99998872661532656</v>
+        <v>0.60433323353681423</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2606,13 +2041,13 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B23">
-        <v>5.8110533753819027e-06</v>
+        <v>0.00023947256192902167</v>
       </c>
       <c r="C23">
-        <v>0.99999418894662462</v>
+        <v>0.99976052743807098</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2623,13 +2058,13 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B24">
-        <v>1.470508307288565e-05</v>
+        <v>8.0016065725052599e-05</v>
       </c>
       <c r="C24">
-        <v>0.99998529491692711</v>
+        <v>0.99991998393427495</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2640,13 +2075,13 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B25">
-        <v>1.4980147357346318e-05</v>
+        <v>0.00027217366656229203</v>
       </c>
       <c r="C25">
-        <v>0.99998501985264265</v>
+        <v>0.99972782633343771</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2657,13 +2092,13 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B26">
-        <v>0.00011125193678984679</v>
+        <v>3.5330805479905081e-05</v>
       </c>
       <c r="C26">
-        <v>0.99988874806321015</v>
+        <v>0.99996466919452009</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2674,13 +2109,13 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B27">
-        <v>0.00010374490939479841</v>
+        <v>5.7258669496906833e-06</v>
       </c>
       <c r="C27">
-        <v>0.9998962550906052</v>
+        <v>0.99999427413305031</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2691,13 +2126,13 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B28">
-        <v>0.0001505179613889851</v>
+        <v>3.1863259053466209e-07</v>
       </c>
       <c r="C28">
-        <v>0.99984948203861101</v>
+        <v>0.99999968136740947</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2708,13 +2143,13 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B29">
-        <v>0.0027217966791232007</v>
+        <v>3.7472004214000876e-06</v>
       </c>
       <c r="C29">
-        <v>0.9972782033208768</v>
+        <v>0.9999962527995786</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2725,13 +2160,13 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B30">
-        <v>0.00042208071858862439</v>
+        <v>0.0015401645843069467</v>
       </c>
       <c r="C30">
-        <v>0.99957791928141138</v>
+        <v>0.99845983541569305</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2742,13 +2177,13 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B31">
-        <v>0.0023060523051314785</v>
+        <v>0.00013171817839774391</v>
       </c>
       <c r="C31">
-        <v>0.99769394769486852</v>
+        <v>0.99986828182160226</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2759,205 +2194,18 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B32">
-        <v>0.057291354634406932</v>
+        <v>0.00070299187190348</v>
       </c>
       <c r="C32">
-        <v>0.94270864536559307</v>
+        <v>0.99929700812809652</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33">
-        <v>0.90604641520219775</v>
-      </c>
-      <c r="C33">
-        <v>0.093953584797802248</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34">
-        <v>6.3590634663546197e-06</v>
-      </c>
-      <c r="C34">
-        <v>0.99999364093653365</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35">
-        <v>0.0029951480282863763</v>
-      </c>
-      <c r="C35">
-        <v>0.99700485197171362</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36">
-        <v>0.0016077256597842871</v>
-      </c>
-      <c r="C36">
-        <v>0.99839227434021571</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37">
-        <v>0.0018915938239615349</v>
-      </c>
-      <c r="C37">
-        <v>0.99810840617603847</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38">
-        <v>0.0010125569186407724</v>
-      </c>
-      <c r="C38">
-        <v>0.99898744308135923</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39">
-        <v>0.0093204535129459698</v>
-      </c>
-      <c r="C39">
-        <v>0.99067954648705403</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40">
-        <v>0.0032461441949220848</v>
-      </c>
-      <c r="C40">
-        <v>0.99675385580507792</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41">
-        <v>0.00054223126666996802</v>
-      </c>
-      <c r="C41">
-        <v>0.99945776873333003</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42">
-        <v>0.015681830439407296</v>
-      </c>
-      <c r="C42">
-        <v>0.9843181695605927</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43">
-        <v>0.003162454635575962</v>
-      </c>
-      <c r="C43">
-        <v>0.99683754536442404</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
         <v>2</v>
       </c>
     </row>
@@ -2967,7 +2215,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E31"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="true"/>
@@ -2982,27 +2230,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B2">
-        <v>0.012780267411440782</v>
+        <v>0.0012646247891056062</v>
       </c>
       <c r="C2">
-        <v>0.98721973258855922</v>
+        <v>0.99873537521089439</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3013,13 +2261,13 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B3">
-        <v>0.99999677406495036</v>
+        <v>0.99995903552740173</v>
       </c>
       <c r="C3">
-        <v>3.2259350496414554e-06</v>
+        <v>4.0964472598269454e-05</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3030,13 +2278,13 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B4">
-        <v>0.99999679592256541</v>
+        <v>0.99998289558435838</v>
       </c>
       <c r="C4">
-        <v>3.2040774345864763e-06</v>
+        <v>1.7104415641652709e-05</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3047,13 +2295,13 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="B5">
-        <v>0.9999986434067496</v>
+        <v>0.99999724064429918</v>
       </c>
       <c r="C5">
-        <v>1.3565932504326963e-06</v>
+        <v>2.7593557007876077e-06</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3064,13 +2312,13 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B6">
-        <v>0.99999548507209368</v>
+        <v>0.99999999842532172</v>
       </c>
       <c r="C6">
-        <v>4.5149279063307062e-06</v>
+        <v>1.5746782283132606e-09</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3081,16 +2329,16 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B7">
-        <v>0.9985954156581992</v>
+        <v>0.036695687702431701</v>
       </c>
       <c r="C7">
-        <v>0.0014045843418007469</v>
+        <v>0.9633043122975683</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3098,13 +2346,13 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="B8">
-        <v>0.9999965498301322</v>
+        <v>0.99999798898117809</v>
       </c>
       <c r="C8">
-        <v>3.4501698678532774e-06</v>
+        <v>2.0110188219314752e-06</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3115,13 +2363,13 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="B9">
-        <v>0.9999799883701227</v>
+        <v>0.99999999998928513</v>
       </c>
       <c r="C9">
-        <v>2.0011629877271596e-05</v>
+        <v>1.0714856977036004e-11</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3132,13 +2380,13 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="B10">
-        <v>0.99992804350427267</v>
+        <v>0.99999999893221447</v>
       </c>
       <c r="C10">
-        <v>7.1956495727278238e-05</v>
+        <v>1.0677854734862242e-09</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3149,13 +2397,13 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="B11">
-        <v>0.87305644733027443</v>
+        <v>0.99999999729105937</v>
       </c>
       <c r="C11">
-        <v>0.12694355266972551</v>
+        <v>2.7089405840519894e-09</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3166,13 +2414,13 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="B12">
-        <v>0.96158439290982267</v>
+        <v>0.99997613106457828</v>
       </c>
       <c r="C12">
-        <v>0.038415607090177287</v>
+        <v>2.3868935421729556e-05</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3183,13 +2431,13 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B13">
-        <v>0.99999699440584333</v>
+        <v>0.99979837690593287</v>
       </c>
       <c r="C13">
-        <v>3.0055941566346734e-06</v>
+        <v>0.00020162309406710768</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3200,13 +2448,13 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B14">
-        <v>0.9973568907831053</v>
+        <v>0.99999897071914812</v>
       </c>
       <c r="C14">
-        <v>0.0026431092168947216</v>
+        <v>1.0292808518571151e-06</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3217,47 +2465,47 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B15">
-        <v>2.2945925095552155e-06</v>
+        <v>0.99994534609031716</v>
       </c>
       <c r="C15">
-        <v>0.99999770540749044</v>
+        <v>5.4653909682819246e-05</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="B16">
-        <v>0.0014365604388052457</v>
+        <v>0.99999929958167177</v>
       </c>
       <c r="C16">
-        <v>0.99856343956119475</v>
+        <v>7.0041832826963101e-07</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B17">
-        <v>0.0036073246831962447</v>
+        <v>8.1066333668444734e-05</v>
       </c>
       <c r="C17">
-        <v>0.99639267531680376</v>
+        <v>0.99991893366633156</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -3268,13 +2516,13 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="B18">
-        <v>9.8059974603659228e-06</v>
+        <v>4.5785597535541456e-13</v>
       </c>
       <c r="C18">
-        <v>0.99999019400253963</v>
+        <v>0.99999999999954214</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -3285,13 +2533,13 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B19">
-        <v>4.7295500849031669e-14</v>
+        <v>1.082357619974772e-06</v>
       </c>
       <c r="C19">
-        <v>0.9999999999999527</v>
+        <v>0.99999891764238003</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3302,13 +2550,13 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B20">
-        <v>3.9269254514806562e-11</v>
+        <v>0.00040792521528565384</v>
       </c>
       <c r="C20">
-        <v>0.99999999996073075</v>
+        <v>0.99959207478471435</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -3319,13 +2567,13 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B21">
-        <v>1.0318983886148381e-05</v>
+        <v>1.187530666912906e-06</v>
       </c>
       <c r="C21">
-        <v>0.99998968101611385</v>
+        <v>0.99999881246933309</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -3336,13 +2584,13 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="B22">
-        <v>1.1519762921352594e-07</v>
+        <v>3.6024516703037079e-12</v>
       </c>
       <c r="C22">
-        <v>0.99999988480237079</v>
+        <v>0.99999999999639755</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -3353,13 +2601,13 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B23">
-        <v>3.5581519619576341e-07</v>
+        <v>2.1316282072803006e-12</v>
       </c>
       <c r="C23">
-        <v>0.9999996441848038</v>
+        <v>0.99999999999786837</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -3370,13 +2618,13 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B24">
-        <v>5.8168441618988715e-08</v>
+        <v>2.354356709588501e-10</v>
       </c>
       <c r="C24">
-        <v>0.99999994183155838</v>
+        <v>0.99999999976456433</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3387,13 +2635,13 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B25">
-        <v>9.9472671322153872e-08</v>
+        <v>5.5389426378837925e-10</v>
       </c>
       <c r="C25">
-        <v>0.99999990052732868</v>
+        <v>0.99999999944610574</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -3404,13 +2652,13 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B26">
-        <v>0.00055605749962472917</v>
+        <v>1.5947713005726172e-07</v>
       </c>
       <c r="C26">
-        <v>0.99944394250037527</v>
+        <v>0.99999984052286994</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -3421,13 +2669,13 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B27">
-        <v>9.8290964278824333e-07</v>
+        <v>0.036321631681464406</v>
       </c>
       <c r="C27">
-        <v>0.99999901709035721</v>
+        <v>0.96367836831853559</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -3438,13 +2686,13 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B28">
-        <v>1.5739507130962949e-07</v>
+        <v>5.0218005864799409e-08</v>
       </c>
       <c r="C28">
-        <v>0.99999984260492869</v>
+        <v>0.99999994978199414</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -3455,13 +2703,13 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="B29">
-        <v>7.3286995139199007e-08</v>
+        <v>1.5482928383825367e-06</v>
       </c>
       <c r="C29">
-        <v>0.99999992671300486</v>
+        <v>0.99999845170716162</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -3472,13 +2720,13 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="B30">
-        <v>1.7620678085528141e-06</v>
+        <v>1.3093755580895206e-06</v>
       </c>
       <c r="C30">
-        <v>0.99999823793219145</v>
+        <v>0.99999869062444191</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -3489,222 +2737,18 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B31">
-        <v>4.9328132884718379e-05</v>
+        <v>5.4541644745054185e-07</v>
       </c>
       <c r="C31">
-        <v>0.99995067186711528</v>
+        <v>0.99999945458355255</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32">
-        <v>0.028679976416092323</v>
-      </c>
-      <c r="C32">
-        <v>0.97132002358390768</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33">
-        <v>0.0025816418980690869</v>
-      </c>
-      <c r="C33">
-        <v>0.99741835810193091</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34">
-        <v>0.00014516333112757351</v>
-      </c>
-      <c r="C34">
-        <v>0.99985483666887243</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35">
-        <v>0.0012823176928017377</v>
-      </c>
-      <c r="C35">
-        <v>0.99871768230719826</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36">
-        <v>4.3001723989077867e-05</v>
-      </c>
-      <c r="C36">
-        <v>0.99995699827601092</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37">
-        <v>0.00054518348894039281</v>
-      </c>
-      <c r="C37">
-        <v>0.99945481651105961</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38">
-        <v>0.00031926277592941865</v>
-      </c>
-      <c r="C38">
-        <v>0.99968073722407058</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39">
-        <v>0.0001569849451044103</v>
-      </c>
-      <c r="C39">
-        <v>0.99984301505489559</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B40">
-        <v>0.00041450899578898692</v>
-      </c>
-      <c r="C40">
-        <v>0.99958549100421101</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B41">
-        <v>0.00069321141876099723</v>
-      </c>
-      <c r="C41">
-        <v>0.999306788581239</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42">
-        <v>0.00062265477746559217</v>
-      </c>
-      <c r="C42">
-        <v>0.99937734522253441</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43">
-        <v>0.00051900984865249633</v>
-      </c>
-      <c r="C43">
-        <v>0.9994809901513475</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
         <v>2</v>
       </c>
     </row>
@@ -3714,7 +2758,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E31"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="true"/>
@@ -3729,27 +2773,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="B2">
-        <v>0.88362009473560743</v>
+        <v>0.7049094111313392</v>
       </c>
       <c r="C2">
-        <v>0.11637990526439262</v>
+        <v>0.2950905888686608</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3760,13 +2804,13 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="B3">
-        <v>0.99671166208607009</v>
+        <v>0.93010149782326934</v>
       </c>
       <c r="C3">
-        <v>0.0032883379139299483</v>
+        <v>0.069898502176730701</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3777,13 +2821,13 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="B4">
-        <v>0.98621145002361066</v>
+        <v>0.93745866449952397</v>
       </c>
       <c r="C4">
-        <v>0.013788549976389317</v>
+        <v>0.062541335500476025</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3794,13 +2838,13 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="B5">
-        <v>0.99957831841431122</v>
+        <v>0.99808202115623457</v>
       </c>
       <c r="C5">
-        <v>0.00042168158568877236</v>
+        <v>0.0019179788437654322</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3811,13 +2855,13 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="B6">
-        <v>0.99977110849479522</v>
+        <v>0.99981998239606695</v>
       </c>
       <c r="C6">
-        <v>0.00022889150520477965</v>
+        <v>0.00018001760393299366</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3828,13 +2872,13 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="B7">
-        <v>0.99937788738978339</v>
+        <v>0.99974818700801105</v>
       </c>
       <c r="C7">
-        <v>0.00062211261021659445</v>
+        <v>0.00025181299198895492</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3845,13 +2889,13 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="B8">
-        <v>0.99525131607021844</v>
+        <v>0.9994040628889177</v>
       </c>
       <c r="C8">
-        <v>0.0047486839297815079</v>
+        <v>0.00059593711108235474</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3862,13 +2906,13 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="B9">
-        <v>0.99999792437173363</v>
+        <v>0.96821566999207886</v>
       </c>
       <c r="C9">
-        <v>2.0756282664178243e-06</v>
+        <v>0.03178433000792117</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3879,13 +2923,13 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="B10">
-        <v>0.99931674843202001</v>
+        <v>0.97592316929631273</v>
       </c>
       <c r="C10">
-        <v>0.00068325156798004609</v>
+        <v>0.024076830703687303</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3896,13 +2940,13 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="B11">
-        <v>0.95765735588416545</v>
+        <v>0.99966979491275154</v>
       </c>
       <c r="C11">
-        <v>0.042342644115834521</v>
+        <v>0.00033020508724846727</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3913,13 +2957,13 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="B12">
-        <v>0.9999125390509056</v>
+        <v>0.99458969441198442</v>
       </c>
       <c r="C12">
-        <v>8.7460949094395231e-05</v>
+        <v>0.00541030558801561</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3930,13 +2974,13 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="B13">
-        <v>0.017907692181151957</v>
+        <v>0.0047920620602244224</v>
       </c>
       <c r="C13">
-        <v>0.98209230781884804</v>
+        <v>0.99520793793977558</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -3947,13 +2991,13 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="B14">
-        <v>0.0056478201261562777</v>
+        <v>0.032551916261725156</v>
       </c>
       <c r="C14">
-        <v>0.99435217987384372</v>
+        <v>0.96744808373827484</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -3964,13 +3008,13 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="B15">
-        <v>0.0035540170053823816</v>
+        <v>0.085904851460527509</v>
       </c>
       <c r="C15">
-        <v>0.99644598299461762</v>
+        <v>0.91409514853947249</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -3981,13 +3025,13 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="B16">
-        <v>0.00027392057456676611</v>
+        <v>0.066410494067902892</v>
       </c>
       <c r="C16">
-        <v>0.99972607942543323</v>
+        <v>0.93358950593209711</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -3998,13 +3042,13 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="B17">
-        <v>0.010115148080958813</v>
+        <v>9.2075236324262733e-11</v>
       </c>
       <c r="C17">
-        <v>0.98988485191904119</v>
+        <v>0.99999999990792476</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -4015,13 +3059,13 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="B18">
-        <v>1.3910189394561456e-05</v>
+        <v>1.463431820170058e-09</v>
       </c>
       <c r="C18">
-        <v>0.99998608981060544</v>
+        <v>0.99999999853656818</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -4032,13 +3076,13 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="B19">
-        <v>0.00033749276229078085</v>
+        <v>0.42512957823837294</v>
       </c>
       <c r="C19">
-        <v>0.99966250723770922</v>
+        <v>0.57487042176162706</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -4049,13 +3093,13 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="B20">
-        <v>0.00021484902823298846</v>
+        <v>0.0041391890463842174</v>
       </c>
       <c r="C20">
-        <v>0.99978515097176701</v>
+        <v>0.99586081095361578</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -4066,13 +3110,13 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="B21">
-        <v>0.00017062837689441057</v>
+        <v>0.00084858486953753864</v>
       </c>
       <c r="C21">
-        <v>0.99982937162310559</v>
+        <v>0.99915141513046246</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -4083,13 +3127,13 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="B22">
-        <v>0.0006347131172860232</v>
+        <v>0.00068196748979432176</v>
       </c>
       <c r="C22">
-        <v>0.99936528688271398</v>
+        <v>0.99931803251020568</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -4100,13 +3144,13 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="B23">
-        <v>0.00093561445540746302</v>
+        <v>0.038869356395886623</v>
       </c>
       <c r="C23">
-        <v>0.99906438554459254</v>
+        <v>0.96113064360411338</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -4117,13 +3161,13 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="B24">
-        <v>0.00049387032416992049</v>
+        <v>0.1163540595645397</v>
       </c>
       <c r="C24">
-        <v>0.99950612967583008</v>
+        <v>0.8836459404354603</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -4134,13 +3178,13 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="B25">
-        <v>0.0025070005619214353</v>
+        <v>0.13781377514416271</v>
       </c>
       <c r="C25">
-        <v>0.99749299943807856</v>
+        <v>0.86218622485583729</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -4151,13 +3195,13 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="B26">
-        <v>0.0017100458866804447</v>
+        <v>0.00267932503045476</v>
       </c>
       <c r="C26">
-        <v>0.99828995411331956</v>
+        <v>0.99732067496954524</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4168,13 +3212,13 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="B27">
-        <v>0.0011802049807742021</v>
+        <v>0.004692478829456892</v>
       </c>
       <c r="C27">
-        <v>0.9988197950192258</v>
+        <v>0.99530752117054311</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -4185,13 +3229,13 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="B28">
-        <v>0.00051011907879383589</v>
+        <v>0.0075423946461457003</v>
       </c>
       <c r="C28">
-        <v>0.99948988092120616</v>
+        <v>0.9924576053538543</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -4202,13 +3246,13 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="B29">
-        <v>0.009136349019127854</v>
+        <v>0.024116324909168929</v>
       </c>
       <c r="C29">
-        <v>0.99086365098087215</v>
+        <v>0.97588367509083107</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -4219,13 +3263,13 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="B30">
-        <v>0.0038352999200241822</v>
+        <v>0.0029312877033883522</v>
       </c>
       <c r="C30">
-        <v>0.99616470007997582</v>
+        <v>0.99706871229661165</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -4236,222 +3280,18 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="B31">
-        <v>0.00050600742844553181</v>
+        <v>0.012948235333175573</v>
       </c>
       <c r="C31">
-        <v>0.99949399257155447</v>
+        <v>0.98705176466682443</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32">
-        <v>0.010266252631175532</v>
-      </c>
-      <c r="C32">
-        <v>0.98973374736882447</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B33">
-        <v>0.0020661189602940722</v>
-      </c>
-      <c r="C33">
-        <v>0.99793388103970593</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B34">
-        <v>0.0010700841480850709</v>
-      </c>
-      <c r="C34">
-        <v>0.99892991585191493</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35">
-        <v>0.00032864648598707191</v>
-      </c>
-      <c r="C35">
-        <v>0.99967135351401293</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36">
-        <v>0.0024391816777855624</v>
-      </c>
-      <c r="C36">
-        <v>0.99756081832221444</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37">
-        <v>0.00017720356998363052</v>
-      </c>
-      <c r="C37">
-        <v>0.99982279643001637</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38">
-        <v>0.00092207481665074198</v>
-      </c>
-      <c r="C38">
-        <v>0.99907792518334926</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39">
-        <v>0.0022404538481333169</v>
-      </c>
-      <c r="C39">
-        <v>0.99775954615186668</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B40">
-        <v>0.001379868796353878</v>
-      </c>
-      <c r="C40">
-        <v>0.99862013120364612</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B41">
-        <v>0.0029500324728517491</v>
-      </c>
-      <c r="C41">
-        <v>0.99704996752714825</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B42">
-        <v>0.0019265877458539693</v>
-      </c>
-      <c r="C42">
-        <v>0.99807341225414603</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B43">
-        <v>0.0027786930836446455</v>
-      </c>
-      <c r="C43">
-        <v>0.99722130691635535</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
         <v>2</v>
       </c>
     </row>
